--- a/DateofImages.xlsx
+++ b/DateofImages.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t xml:space="preserve">Lincoln</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Ames</t>
   </si>
   <si>
-    <t xml:space="preserve">Scotsbluff</t>
+    <t xml:space="preserve">Scottsbluff</t>
   </si>
   <si>
     <t xml:space="preserve">MOValley</t>
@@ -77,6 +77,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,12 +137,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,442 +167,403 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>44760</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>44745</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>44751</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>44779</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>44770</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>44763</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>44807</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>44777</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>44777</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>44815</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>44823</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>44831</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>44752</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>44754</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>44754</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>44762</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>44768</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>44768</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>44775</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>44784</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>44784</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>44817</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>44835</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>44843</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>44757</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>44765</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>44783</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>44804</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>44815</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>44828</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>44746</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>44750</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>44750</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>44759</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>44764</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>44764</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>44780</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>44785</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="2" t="n">
         <v>44785</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>44791</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>44813</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>44828</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>44755</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <v>44755</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="2" t="n">
         <v>44755</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>44763</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="2" t="n">
         <v>44769</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="2" t="n">
         <v>44769</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>44781</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <v>44783</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="2" t="n">
         <v>44783</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>44807</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>44815</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>44823</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
